--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BANCHUAN\DONHANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCE2024-0CE1-4E89-97C1-12F98C3AABE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072463D5-DAAE-43C6-AB67-9A6E2998AF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="17400" xr2:uid="{1ACCF3B5-8732-43CE-BFEE-861D393691CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1ACCF3B5-8732-43CE-BFEE-861D393691CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -414,10 +414,46 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -431,47 +467,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -846,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C7507C-0651-46A0-B0E3-516D355C4980}">
   <dimension ref="A1:L518"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L517" sqref="L517"/>
+    <sheetView tabSelected="1" topLeftCell="A483" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L505" sqref="L505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,172 +861,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -8032,123 +8029,148 @@
       <c r="L511" s="14"/>
     </row>
     <row r="512" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="19" t="s">
+      <c r="A512" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B512" s="19"/>
-      <c r="C512" s="19"/>
-      <c r="D512" s="19"/>
-      <c r="E512" s="19"/>
-      <c r="F512" s="19"/>
-      <c r="G512" s="19"/>
+      <c r="B512" s="31"/>
+      <c r="C512" s="31"/>
+      <c r="D512" s="31"/>
+      <c r="E512" s="31"/>
+      <c r="F512" s="31"/>
+      <c r="G512" s="31"/>
       <c r="H512" s="12"/>
       <c r="I512" s="12" t="s">
         <v>14</v>
       </c>
       <c r="J512" s="12"/>
-      <c r="K512" s="18"/>
+      <c r="K512" s="17"/>
       <c r="L512" s="16"/>
     </row>
     <row r="513" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="19" t="s">
+      <c r="A513" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B513" s="19"/>
-      <c r="C513" s="19"/>
-      <c r="D513" s="19"/>
-      <c r="E513" s="19"/>
-      <c r="F513" s="19"/>
-      <c r="G513" s="19"/>
-      <c r="H513" s="17"/>
-      <c r="I513" s="12"/>
-      <c r="J513" s="12" t="s">
+      <c r="B513" s="31"/>
+      <c r="C513" s="31"/>
+      <c r="D513" s="31"/>
+      <c r="E513" s="31"/>
+      <c r="F513" s="31"/>
+      <c r="G513" s="31"/>
+      <c r="H513" s="12"/>
+      <c r="I513" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K513" s="18"/>
+      <c r="J513" s="12"/>
+      <c r="K513" s="17"/>
       <c r="L513" s="16"/>
     </row>
     <row r="514" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="19" t="s">
+      <c r="A514" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B514" s="19"/>
-      <c r="C514" s="19"/>
-      <c r="D514" s="19"/>
-      <c r="E514" s="19"/>
-      <c r="F514" s="19"/>
-      <c r="G514" s="19"/>
-      <c r="H514" s="17"/>
+      <c r="B514" s="31"/>
+      <c r="C514" s="31"/>
+      <c r="D514" s="31"/>
+      <c r="E514" s="31"/>
+      <c r="F514" s="31"/>
+      <c r="G514" s="31"/>
+      <c r="H514" s="12"/>
       <c r="I514" s="12"/>
       <c r="J514" s="12"/>
-      <c r="K514" s="18"/>
+      <c r="K514" s="17"/>
       <c r="L514" s="16"/>
     </row>
     <row r="515" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="19" t="s">
+      <c r="A515" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B515" s="19"/>
-      <c r="C515" s="19"/>
-      <c r="D515" s="19"/>
-      <c r="E515" s="19"/>
-      <c r="F515" s="19"/>
-      <c r="G515" s="19"/>
-      <c r="H515" s="17"/>
-      <c r="I515" s="12"/>
-      <c r="J515" s="12" t="s">
+      <c r="B515" s="31"/>
+      <c r="C515" s="31"/>
+      <c r="D515" s="31"/>
+      <c r="E515" s="31"/>
+      <c r="F515" s="31"/>
+      <c r="G515" s="31"/>
+      <c r="H515" s="12"/>
+      <c r="I515" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K515" s="18"/>
+      <c r="J515" s="12"/>
+      <c r="K515" s="17"/>
       <c r="L515" s="16"/>
     </row>
     <row r="516" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="19" t="s">
+      <c r="A516" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B516" s="19"/>
-      <c r="C516" s="19"/>
-      <c r="D516" s="19"/>
-      <c r="E516" s="19"/>
-      <c r="F516" s="19"/>
-      <c r="G516" s="19"/>
-      <c r="H516" s="17"/>
+      <c r="B516" s="31"/>
+      <c r="C516" s="31"/>
+      <c r="D516" s="31"/>
+      <c r="E516" s="31"/>
+      <c r="F516" s="31"/>
+      <c r="G516" s="31"/>
+      <c r="H516" s="12"/>
       <c r="I516" s="12"/>
       <c r="J516" s="12"/>
-      <c r="K516" s="18"/>
+      <c r="K516" s="17"/>
       <c r="L516" s="16"/>
     </row>
     <row r="517" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="19" t="s">
+      <c r="A517" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B517" s="19"/>
-      <c r="C517" s="19"/>
-      <c r="D517" s="19"/>
-      <c r="E517" s="19"/>
-      <c r="F517" s="19"/>
-      <c r="G517" s="19"/>
-      <c r="H517" s="17"/>
+      <c r="B517" s="31"/>
+      <c r="C517" s="31"/>
+      <c r="D517" s="31"/>
+      <c r="E517" s="31"/>
+      <c r="F517" s="31"/>
+      <c r="G517" s="31"/>
+      <c r="H517" s="12"/>
       <c r="I517" s="12"/>
       <c r="J517" s="12"/>
-      <c r="K517" s="18"/>
+      <c r="K517" s="17"/>
       <c r="L517" s="16"/>
     </row>
     <row r="518" spans="1:12" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="20"/>
-      <c r="B518" s="21"/>
-      <c r="C518" s="21"/>
-      <c r="D518" s="21"/>
-      <c r="E518" s="21"/>
-      <c r="F518" s="21"/>
-      <c r="G518" s="21"/>
-      <c r="H518" s="21"/>
-      <c r="I518" s="21"/>
-      <c r="J518" s="21"/>
-      <c r="K518" s="21"/>
-      <c r="L518" s="22"/>
+      <c r="A518" s="32"/>
+      <c r="B518" s="33"/>
+      <c r="C518" s="33"/>
+      <c r="D518" s="33"/>
+      <c r="E518" s="33"/>
+      <c r="F518" s="33"/>
+      <c r="G518" s="33"/>
+      <c r="H518" s="33"/>
+      <c r="I518" s="33"/>
+      <c r="J518" s="33"/>
+      <c r="K518" s="33"/>
+      <c r="L518" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A516:G516"/>
+    <mergeCell ref="A517:G517"/>
+    <mergeCell ref="A518:L518"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A512:G512"/>
+    <mergeCell ref="A513:G513"/>
+    <mergeCell ref="A514:G514"/>
+    <mergeCell ref="A515:G515"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="L10:L11"/>
@@ -8165,31 +8187,6 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A516:G516"/>
-    <mergeCell ref="A517:G517"/>
-    <mergeCell ref="A518:L518"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A512:G512"/>
-    <mergeCell ref="A513:G513"/>
-    <mergeCell ref="A514:G514"/>
-    <mergeCell ref="A515:G515"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
